--- a/education/NPC.xlsx
+++ b/education/NPC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Documents/GitHub/Cadw-new/education/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A7878E2-67D8-1349-83FC-F46EA153AF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3178603E-7102-0240-8686-96344C0C6F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1460" windowWidth="27640" windowHeight="16940" xr2:uid="{4F82D5BA-EBF1-1B47-B15D-304D8454E768}"/>
+    <workbookView xWindow="-30060" yWindow="1420" windowWidth="24560" windowHeight="21100" xr2:uid="{4F82D5BA-EBF1-1B47-B15D-304D8454E768}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Scene</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Command Button 6</t>
+  </si>
+  <si>
+    <t>lobby</t>
+  </si>
+  <si>
+    <t>cw.npc.text.lobby</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.lobby</t>
+  </si>
+  <si>
+    <t>{"rawtext": [{"translate": "cw.npc.name.lobby"}]}</t>
   </si>
 </sst>
 </file>
@@ -138,9 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,17 +490,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7861E-0163-5C4B-BBD7-E2FC316E5FE2}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
@@ -549,6 +564,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/education/NPC.xlsx
+++ b/education/NPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Documents/GitHub/Cadw-new/education/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3178603E-7102-0240-8686-96344C0C6F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C481F02-3953-864E-B2F1-002264113147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30060" yWindow="1420" windowWidth="24560" windowHeight="21100" xr2:uid="{4F82D5BA-EBF1-1B47-B15D-304D8454E768}"/>
+    <workbookView xWindow="-38320" yWindow="1340" windowWidth="37740" windowHeight="18680" xr2:uid="{4F82D5BA-EBF1-1B47-B15D-304D8454E768}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Scene</t>
   </si>
@@ -101,14 +101,104 @@
     <t>cw.npc.button.one.lobby</t>
   </si>
   <si>
-    <t>{"rawtext": [{"translate": "cw.npc.name.lobby"}]}</t>
+    <t>cw.npc.name.lobby</t>
+  </si>
+  <si>
+    <t>coch</t>
+  </si>
+  <si>
+    <t>cochwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.name.cochwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.text.cochwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.cochwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.two.cochwelcome</t>
+  </si>
+  <si>
+    <t>tretower</t>
+  </si>
+  <si>
+    <t>tretowerwelcome</t>
+  </si>
+  <si>
+    <t>raglan</t>
+  </si>
+  <si>
+    <t>raglanwelcome</t>
+  </si>
+  <si>
+    <t>conwy</t>
+  </si>
+  <si>
+    <t>conwywelcome</t>
+  </si>
+  <si>
+    <t>stdavids</t>
+  </si>
+  <si>
+    <t>stdavidswelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.name.trewelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.text.trewelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.name.raglanwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.name.conwywelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.name.davidwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.text.raglanwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.text.conwywelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.text.davidwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.trewelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.raglanwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.conwywelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.davidwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.two.trewelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.two.raglanwelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.two.conwywelcome</t>
+  </si>
+  <si>
+    <t>cw.npc.button.two.davidwelcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +210,19 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -150,12 +253,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,22 +595,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7861E-0163-5C4B-BBD7-E2FC316E5FE2}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
     <col min="8" max="8" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.83203125" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" customWidth="1"/>
+    <col min="17" max="17" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22" x14ac:dyDescent="0.3">
@@ -564,7 +678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -579,6 +693,111 @@
       </c>
       <c r="G2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/education/NPC.xlsx
+++ b/education/NPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Documents/GitHub/Cadw-new/education/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C481F02-3953-864E-B2F1-002264113147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B2CF5-831C-0C47-A910-12D621BE7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38320" yWindow="1340" windowWidth="37740" windowHeight="18680" xr2:uid="{4F82D5BA-EBF1-1B47-B15D-304D8454E768}"/>
+    <workbookView xWindow="-34320" yWindow="1280" windowWidth="27540" windowHeight="20700" xr2:uid="{4F82D5BA-EBF1-1B47-B15D-304D8454E768}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Scene</t>
   </si>
@@ -192,6 +192,45 @@
   </si>
   <si>
     <t>cw.npc.button.two.davidwelcome</t>
+  </si>
+  <si>
+    <t>tp @p -251 -59 -261 facing -251 -59 -265</t>
+  </si>
+  <si>
+    <t>easel</t>
+  </si>
+  <si>
+    <t>cw.npc.text.easel</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.coch</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.tre</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.raglan</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.conwy</t>
+  </si>
+  <si>
+    <t>cw.npc.button.one.david</t>
+  </si>
+  <si>
+    <t>function coch/trigger</t>
+  </si>
+  <si>
+    <t>function tretower/trigger</t>
+  </si>
+  <si>
+    <t>function raglan/trigger</t>
+  </si>
+  <si>
+    <t>function conwy/trigger</t>
+  </si>
+  <si>
+    <t>function davids/trigger</t>
   </si>
 </sst>
 </file>
@@ -595,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7861E-0163-5C4B-BBD7-E2FC316E5FE2}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +651,7 @@
     <col min="7" max="7" width="30.83203125" customWidth="1"/>
     <col min="8" max="8" width="23.1640625" customWidth="1"/>
     <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
     <col min="12" max="12" width="24.6640625" customWidth="1"/>
     <col min="13" max="13" width="28.6640625" customWidth="1"/>
@@ -714,6 +753,9 @@
       <c r="I3" t="s">
         <v>27</v>
       </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -733,6 +775,9 @@
       </c>
       <c r="I4" t="s">
         <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
       </c>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
@@ -757,6 +802,9 @@
       <c r="I5" t="s">
         <v>49</v>
       </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -779,6 +827,9 @@
       <c r="I6" t="s">
         <v>50</v>
       </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -799,8 +850,53 @@
       <c r="I7" t="s">
         <v>51</v>
       </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/education/NPC.xlsx
+++ b/education/NPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Documents/GitHub/Cadw-new/education/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B2CF5-831C-0C47-A910-12D621BE7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E2C18-338C-7040-B1EB-FB703F23383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34320" yWindow="1280" windowWidth="27540" windowHeight="20700" xr2:uid="{4F82D5BA-EBF1-1B47-B15D-304D8454E768}"/>
+    <workbookView xWindow="1320" yWindow="1140" windowWidth="32560" windowHeight="19000" xr2:uid="{4F82D5BA-EBF1-1B47-B15D-304D8454E768}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Scene</t>
   </si>
@@ -206,18 +206,6 @@
     <t>cw.npc.button.one.coch</t>
   </si>
   <si>
-    <t>cw.npc.button.one.tre</t>
-  </si>
-  <si>
-    <t>cw.npc.button.one.raglan</t>
-  </si>
-  <si>
-    <t>cw.npc.button.one.conwy</t>
-  </si>
-  <si>
-    <t>cw.npc.button.one.david</t>
-  </si>
-  <si>
     <t>function coch/trigger</t>
   </si>
   <si>
@@ -231,6 +219,21 @@
   </si>
   <si>
     <t>function davids/trigger</t>
+  </si>
+  <si>
+    <t>cw.npc.button.two.tre</t>
+  </si>
+  <si>
+    <t>cw.npc.button.three.raglan</t>
+  </si>
+  <si>
+    <t>cw.npc.button.four.conwy</t>
+  </si>
+  <si>
+    <t>cw.npc.button.five.david</t>
+  </si>
+  <si>
+    <t>cw.npc.button.six.back</t>
   </si>
 </sst>
 </file>
@@ -636,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7861E-0163-5C4B-BBD7-E2FC316E5FE2}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,31 +871,34 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
         <v>60</v>
       </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
+      <c r="Q8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
